--- a/spliced/walkingToRunning/2023-03-30_14-20-17/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-20-17/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.069824206172887</v>
+        <v>0.09952953143403931</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.056831963565377</v>
+        <v>-0.1946007158231257</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4002157214584807</v>
+        <v>-1.235400125247621</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4100321372714515</v>
+        <v>0.7596392552240191</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.9452285936119162</v>
+        <v>-0.4710539486430101</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.8878356365982556</v>
+        <v>-1.249458708894362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.09952953143403931</v>
+        <v>0.9691518504138372</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1946007158231257</v>
+        <v>-1.144679769326803</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.235400125247621</v>
+        <v>-1.013632127177822</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7596392552240191</v>
+        <v>0.5637087537607993</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.4710539486430101</v>
+        <v>-0.8698977423370384</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.249458708894362</v>
+        <v>-0.6591360478773013</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9691518504138372</v>
+        <v>-1.529567692257933</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.144679769326803</v>
+        <v>-0.1701191907423907</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.013632127177822</v>
+        <v>2.089324393540335</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.5637087537607993</v>
+        <v>-1.60695329718632</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.8698977423370384</v>
+        <v>0.9596939690479577</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6591360478773013</v>
+        <v>2.503135678965</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.529567692257933</v>
+        <v>-4.042883170033875</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1701191907423907</v>
+        <v>4.578179887675418</v>
       </c>
       <c r="C8" t="n">
-        <v>2.089324393540335</v>
+        <v>0.4566991565697582</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.60695329718632</v>
+        <v>-0.6153825116813314</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9596939690479577</v>
+        <v>0.4450490321587646</v>
       </c>
       <c r="C9" t="n">
-        <v>2.503135678965</v>
+        <v>-1.158701128369084</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-4.042883170033875</v>
+        <v>5.463495351852635</v>
       </c>
       <c r="B10" t="n">
-        <v>4.578179887675418</v>
+        <v>-3.977313330414098</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4566991565697582</v>
+        <v>-3.230007587222884</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.6153825116813314</v>
+        <v>4.66184952062202</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4450490321587646</v>
+        <v>3.56197387800312</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.158701128369084</v>
+        <v>-1.986260027786983</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.463495351852635</v>
+        <v>-0.716348304661115</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.977313330414098</v>
+        <v>4.782481053553503</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.230007587222884</v>
+        <v>2.407147008686489</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.66184952062202</v>
+        <v>-4.534485773209054</v>
       </c>
       <c r="B13" t="n">
-        <v>3.56197387800312</v>
+        <v>1.10340199667379</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.986260027786983</v>
+        <v>3.735504924704164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.716348304661115</v>
+        <v>-5.989971771152742</v>
       </c>
       <c r="B14" t="n">
-        <v>4.782481053553503</v>
+        <v>4.972828354857392</v>
       </c>
       <c r="C14" t="n">
-        <v>2.407147008686489</v>
+        <v>1.774531464511098</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-4.534485773209054</v>
+        <v>-4.013937945759595</v>
       </c>
       <c r="B15" t="n">
-        <v>1.10340199667379</v>
+        <v>5.69700783545815</v>
       </c>
       <c r="C15" t="n">
-        <v>3.735504924704164</v>
+        <v>-1.538702366548966</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-5.989971771152742</v>
+        <v>2.29124034763484</v>
       </c>
       <c r="B16" t="n">
-        <v>4.972828354857392</v>
+        <v>0.5539356289653035</v>
       </c>
       <c r="C16" t="n">
-        <v>1.774531464511098</v>
+        <v>-3.10506863769041</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-4.013937945759595</v>
+        <v>4.105864645144252</v>
       </c>
       <c r="B17" t="n">
-        <v>5.69700783545815</v>
+        <v>-2.789147576060868</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.538702366548966</v>
+        <v>-3.677538324933537</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.29124034763484</v>
+        <v>0.2592948106450716</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5539356289653035</v>
+        <v>-3.157548316028139</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.10506863769041</v>
+        <v>-0.8597697675774869</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.105864645144252</v>
+        <v>-6.645317213251005</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.789147576060868</v>
+        <v>-0.560946681083867</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.677538324933537</v>
+        <v>5.571864681506409</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2592948106450716</v>
+        <v>-1.937935614804442</v>
       </c>
       <c r="B20" t="n">
-        <v>-3.157548316028139</v>
+        <v>-0.1515454994429453</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.8597697675774869</v>
+        <v>-1.15992745128265</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-6.645317213251005</v>
+        <v>2.910339694743533</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.560946681083867</v>
+        <v>-5.836961925576653</v>
       </c>
       <c r="C21" t="n">
-        <v>5.571864681506409</v>
+        <v>-4.45155078828873</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3.819924138400946</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-3.973247524795179</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.4456482636272369</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.989335611325833</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.2693817703002244</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.09849660987155473</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-3.755865255627084</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.09460148078591657</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.946894074251968</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-2.889570736010117</v>
+      </c>
+      <c r="B25" t="n">
+        <v>9.743136939652585</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5475007984615461</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-1.842574656009669</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.510396480560456</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.828126966953318</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2.88307266279109</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-8.930636825911506</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.004032475139075</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4.052329929460007</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-3.608018367662238</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-3.160855819325922</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-1.29231422538059</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.658297274637648</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.279984981641821</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-4.269718651377847</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-2.122582794056059</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-2.14775515915062</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-2.918748300009885</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.177203515254081</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-6.725167151984817</v>
       </c>
     </row>
   </sheetData>
